--- a/챕터6부터.xlsx
+++ b/챕터6부터.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\clone_wetube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EF1C0E-63EA-4C66-A7E4-B1F7A828FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6138EB7E-CA0F-4C85-8A7D-B2D1DA0FE755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="750" windowWidth="13710" windowHeight="13200" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
+    <workbookView xWindow="12090" yWindow="1050" windowWidth="13710" windowHeight="13200" activeTab="1" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>[6.10 Video Model]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4176,13 +4177,588 @@
       </rPr>
       <t>//Date.now() 괄호를 넣으면 바로 실행됨, 비디오를 생성할때만 실행하고 싶기 때문에 괄호X</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">mongo </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use wetube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.videos.find()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.videos.remove({})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//middleware는 모델 생성전에 만들어야함!</t>
+  </si>
+  <si>
+    <r>
+      <t>videoSchema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">hashtags </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>hashtags[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>startsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> word </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>[6.24 Statics]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4304,6 +4880,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="210 모던고딕 L"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF5370"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4333,7 +4930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4371,6 +4968,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4686,11 +5289,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EDC20-7866-48A4-A530-CEEA5B1082E6}">
+  <dimension ref="A3:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861C485-7948-40B4-BDCC-D3C73EE1723A}">
-  <dimension ref="A2:J148"/>
+  <dimension ref="A2:J162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G150" sqref="G150"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6093,6 +6749,131 @@
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
     </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+    </row>
+    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+    </row>
+    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+    </row>
+    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+    </row>
+    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/챕터6부터.xlsx
+++ b/챕터6부터.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\clone_wetube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6138EB7E-CA0F-4C85-8A7D-B2D1DA0FE755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9191079-9D71-4F48-8C16-FA26345564A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="1050" windowWidth="13710" windowHeight="13200" activeTab="1" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
+    <workbookView xWindow="12090" yWindow="1050" windowWidth="13710" windowHeight="13200" activeTab="2" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="기본" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="base.pug" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>[6.10 Video Model]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4752,13 +4753,557 @@
   <si>
     <t>[6.24 Statics]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>doctype html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>lang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ko"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>head</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> | Wetube</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"stylesheet"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"https://unpkg.com/mvp.css@1.12/mvp.css"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>h1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=pageTitle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>nav</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) HOME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ul</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) SEARCH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> partials/footer.pug</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -4901,6 +5446,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC792EA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4930,7 +5482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4974,6 +5526,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5293,7 +5848,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5345,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861C485-7948-40B4-BDCC-D3C73EE1723A}">
   <dimension ref="A2:J162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView showGridLines="0" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167:A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6879,4 +7434,261 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1615A-25BE-49EC-93DE-81A5D1A7A0B3}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/챕터6부터.xlsx
+++ b/챕터6부터.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\clone_wetube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9191079-9D71-4F48-8C16-FA26345564A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A94F7D-E57D-4DD5-A032-4B76B2B7B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12090" yWindow="1050" windowWidth="13710" windowHeight="13200" activeTab="2" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="base.pug" sheetId="3" r:id="rId3"/>
+    <sheet name="챕터6" sheetId="1" r:id="rId2"/>
+    <sheet name="챕터7" sheetId="4" r:id="rId3"/>
+    <sheet name="base.pug" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -7437,10 +7438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9298BCE-CD11-48A2-BE1F-F1BAD31F62DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1615A-25BE-49EC-93DE-81A5D1A7A0B3}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/챕터6부터.xlsx
+++ b/챕터6부터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\clone_wetube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A94F7D-E57D-4DD5-A032-4B76B2B7B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A38791-FB30-4A79-8673-8AAFE75884AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="1050" windowWidth="13710" windowHeight="13200" activeTab="2" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
+    <workbookView xWindow="13275" yWindow="765" windowWidth="13710" windowHeight="13200" activeTab="3" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
   <si>
     <t>[6.10 Video Model]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5297,6 +5297,593 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve"> partials/footer.pug</t>
+    </r>
+  </si>
+  <si>
+    <t>db.users.find()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: 'MJ',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  email: '90042302@daum.net',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  username: '민지',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password: '1234',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  password2: '1234',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  location: '서울'</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    _id: ObjectId("637b5d81c92316d0b7435083"),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    email: 'a0__0a@naver.com',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    username: 'Kminji',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    password: '$2b$05$JvfFCFTlHXyIbpQsRIVg7eU6tFykYbp2lWW/l.OVi9yoAMOyh5K3W',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: 'KIM MINJI',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    location: 'Mapo',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    __v: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>54321'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>span</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> loggedIn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/logout"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) LOGOUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/my-profile"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>loggedInUser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>의 프로필</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/join"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) JOIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/login"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) LOGIN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/search"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) SEARCH     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>li</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/videos/upload"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) UPLOAD                   </t>
     </r>
   </si>
 </sst>
@@ -5846,10 +6433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382EDC20-7866-48A4-A530-CEEA5B1082E6}">
-  <dimension ref="A3:G7"/>
+  <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5889,6 +6476,104 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -7441,7 +8126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9298BCE-CD11-48A2-BE1F-F1BAD31F62DF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -7452,10 +8137,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1615A-25BE-49EC-93DE-81A5D1A7A0B3}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7666,7 +8351,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
@@ -7679,7 +8364,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -7690,7 +8375,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -7701,8 +8386,578 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/챕터6부터.xlsx
+++ b/챕터6부터.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\clone_wetube\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A38791-FB30-4A79-8673-8AAFE75884AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F763FB40-B523-4A23-A5A1-80FFD780E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13275" yWindow="765" windowWidth="13710" windowHeight="13200" activeTab="3" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
+    <workbookView xWindow="2745" yWindow="0" windowWidth="13710" windowHeight="13200" activeTab="1" xr2:uid="{F42CC8B5-1CC7-4EF3-8B97-AF7419EEB746}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="2" r:id="rId1"/>
-    <sheet name="챕터6" sheetId="1" r:id="rId2"/>
-    <sheet name="챕터7" sheetId="4" r:id="rId3"/>
-    <sheet name="base.pug" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="챕터6" sheetId="1" r:id="rId3"/>
+    <sheet name="챕터7" sheetId="4" r:id="rId4"/>
+    <sheet name="base.pug" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="230">
   <si>
     <t>[6.10 Video Model]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5884,6 +5885,6984 @@
         <family val="3"/>
       </rPr>
       <t xml:space="preserve">) UPLOAD                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> User </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>../models/User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> fetch </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>node-fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bcrypt </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bcrypt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> e </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getJoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">pageTitle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>postJoin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!==</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> password2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✔패스워드가 일치하지 않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF464B5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>//라턴을 해주지 않으면 코드가 계속됨!! (주의)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>exists</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>},{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(exists)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>이미 사용중인 ✔username OR ✔email 입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        location</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>catch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(error) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_message</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getLogin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>postLogin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>findOne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> username </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>user)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>render</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>pageTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>입력한 username을 가진 User가 존재하지 않습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> bcrypt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>password)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ok)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        errorMessage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>잘못된 password입니다.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <r>
+      <t>    req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">loggedIn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">user </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>startGithubLogin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>baseUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>https://github.com/login/oauth/authorize</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>config</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        client_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GH_CLIENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        allow_signup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        scope </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>read:user user:email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>URLSearchParams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(config)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>finalUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>baseUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}`;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(finalUrl)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>finishGithubLogin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>baseUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>https://github.com/login/oauth/access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        client_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GH_CLIENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        client_secret</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GH_SECRET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tokenRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(finalUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>POST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            Accept </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>application/json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tokenRequest)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> tokenRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFF07178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>userRequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fetch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>https://api.github.com/user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>",{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Authorization </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">token </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>access_token</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(userRequest)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>edit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>send</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Edit⛏🪓🔨🔧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>send</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Remove User❌🔙🔙🔚🔚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>send</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LogOut🖐🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>req</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF5370"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC792EA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF82AAFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>send</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC3E88D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>See User😎😋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF8F93A2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
     </r>
   </si>
 </sst>
@@ -6583,6 +13562,531 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9250A11-71FD-422C-92CC-561BA3BAB99E}">
+  <dimension ref="A1:J114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B861C485-7948-40B4-BDCC-D3C73EE1723A}">
   <dimension ref="A2:J162"/>
   <sheetViews>
@@ -8122,7 +15626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9298BCE-CD11-48A2-BE1F-F1BAD31F62DF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8135,11 +15639,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F1615A-25BE-49EC-93DE-81A5D1A7A0B3}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
